--- a/src/test/resources/excel/logintestdata.xlsx
+++ b/src/test/resources/excel/logintestdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15930" windowHeight="2790" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15930" windowHeight="2790"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>TCID</t>
   </si>
@@ -412,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +458,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -466,7 +466,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -552,10 +552,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,6 +605,27 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
